--- a/biology/Zoologie/Grimpar_flambé/Grimpar_flambé.xlsx
+++ b/biology/Zoologie/Grimpar_flambé/Grimpar_flambé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grimpar_flamb%C3%A9</t>
+          <t>Grimpar_flambé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xiphorhynchus pardalotus
 Le Grimpar flambé (Xiphorhynchus pardalotus) est une espèce d'oiseaux de la famille des Furnariidae. Cet oiseau peuple le plateau des Guyanes et régions avoisinantes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grimpar_flamb%C3%A9</t>
+          <t>Grimpar_flambé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Xiphorhynchus pardalotus a été décrite pour la première fois en 1818 par l'ornithologue français Louis Jean Pierre Vieillot (1748-1830) sous le protonyme Dendrocopus pardalotus[1] et à laquelle il donne le nom vernaculaire de Picucule flambé[2], terme aujourd'hui désuet.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Xiphorhynchus pardalotus a été décrite pour la première fois en 1818 par l'ornithologue français Louis Jean Pierre Vieillot (1748-1830) sous le protonyme Dendrocopus pardalotus et à laquelle il donne le nom vernaculaire de Picucule flambé, terme aujourd'hui désuet.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grimpar_flamb%C3%A9</t>
+          <t>Grimpar_flambé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022) :
 sous-espèce Xiphorhynchus pardalotus caurensis Todd, 1948
 sous-espèce Xiphorhynchus pardalotus pardalotus (Vieillot, 1818)</t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grimpar_flamb%C3%A9</t>
+          <t>Grimpar_flambé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vieillot, Nouveau dictionnaire d'histoire naturelle, appliquée aux arts, à l'agriculture, à l'économie rurale et domestique, à la médecine, etc. Par une société de naturalistes et d'agriculteurs, vol. 26, Paris, 1818, 584 p. (lire en ligne), p. 117.</t>
         </is>
